--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -4,10 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
   <si>
     <t>Result</t>
   </si>
@@ -54,12 +59,6 @@
     <t>confirmPassword</t>
   </si>
   <si>
-    <t>Please fill in all fields</t>
-  </si>
-  <si>
-    <t>Passwords don't match</t>
-  </si>
-  <si>
     <t>email1</t>
   </si>
   <si>
@@ -75,19 +74,16 @@
     <t>email3</t>
   </si>
   <si>
-    <t>User5</t>
-  </si>
-  <si>
-    <t>email5</t>
-  </si>
-  <si>
-    <t>User6</t>
-  </si>
-  <si>
-    <t>email6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Passwords don't match.</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>email4</t>
+  </si>
+  <si>
+    <t>Incomplete fields.</t>
   </si>
 </sst>
 </file>
@@ -441,17 +437,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
@@ -486,13 +482,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -503,33 +499,33 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -537,54 +533,340 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" activeCellId="1" sqref="A4:XFD4 A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" activeCellId="3" sqref="A4:XFD4 A5:XFD5 A6:XFD6 A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Full Input" sheetId="1" r:id="rId1"/>
+    <sheet name="No Name" sheetId="2" r:id="rId2"/>
+    <sheet name="No Email" sheetId="3" r:id="rId3"/>
+    <sheet name="No Pass" sheetId="4" r:id="rId4"/>
+    <sheet name="No Confirm" sheetId="5" r:id="rId5"/>
+    <sheet name="No Input" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -440,7 +440,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -625,7 +625,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" activeCellId="1" sqref="A4:XFD4 A5:XFD5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" activeCellId="3" sqref="A4:XFD4 A5:XFD5 A6:XFD6 A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Full Input" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,10 @@
     <sheet name="No Pass" sheetId="4" r:id="rId4"/>
     <sheet name="No Confirm" sheetId="5" r:id="rId5"/>
     <sheet name="No Input" sheetId="6" r:id="rId6"/>
+    <sheet name="Full Login" sheetId="7" r:id="rId7"/>
+    <sheet name="No Email Login" sheetId="8" r:id="rId8"/>
+    <sheet name="No Pass Login" sheetId="9" r:id="rId9"/>
+    <sheet name="No Input Login" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="22">
   <si>
     <t>Result</t>
   </si>
@@ -74,16 +78,22 @@
     <t>email3</t>
   </si>
   <si>
-    <t>Passwords don't match.</t>
-  </si>
-  <si>
     <t>User3</t>
   </si>
   <si>
     <t>email4</t>
   </si>
   <si>
-    <t>Incomplete fields.</t>
+    <t>Passwords don't match</t>
+  </si>
+  <si>
+    <t>Please fill out all fields</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Login successful</t>
   </si>
 </sst>
 </file>
@@ -440,15 +450,15 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
@@ -513,7 +523,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -525,7 +535,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -533,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -542,12 +552,52 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -556,15 +606,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -623,6 +673,217 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -630,219 +891,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -860,9 +909,177 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" activeTab="9"/>
+    <workbookView activeTab="9" windowHeight="6870" windowWidth="14115" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Input" sheetId="1" r:id="rId1"/>
-    <sheet name="No Name" sheetId="2" r:id="rId2"/>
-    <sheet name="No Email" sheetId="3" r:id="rId3"/>
-    <sheet name="No Pass" sheetId="4" r:id="rId4"/>
-    <sheet name="No Confirm" sheetId="5" r:id="rId5"/>
-    <sheet name="No Input" sheetId="6" r:id="rId6"/>
-    <sheet name="Full Login" sheetId="7" r:id="rId7"/>
-    <sheet name="No Email Login" sheetId="8" r:id="rId8"/>
-    <sheet name="No Pass Login" sheetId="9" r:id="rId9"/>
-    <sheet name="No Input Login" sheetId="10" r:id="rId10"/>
+    <sheet name="Full Input" r:id="rId1" sheetId="1"/>
+    <sheet name="No Name" r:id="rId2" sheetId="2"/>
+    <sheet name="No Email" r:id="rId3" sheetId="3"/>
+    <sheet name="No Pass" r:id="rId4" sheetId="4"/>
+    <sheet name="No Confirm" r:id="rId5" sheetId="5"/>
+    <sheet name="No Input" r:id="rId6" sheetId="6"/>
+    <sheet name="Full Login" r:id="rId7" sheetId="7"/>
+    <sheet name="No Email Login" r:id="rId8" sheetId="8"/>
+    <sheet name="No Pass Login" r:id="rId9" sheetId="9"/>
+    <sheet name="No Input Login" r:id="rId10" sheetId="10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="23">
   <si>
     <t>Result</t>
   </si>
@@ -94,12 +94,16 @@
   </si>
   <si>
     <t>Login successful</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,14 +138,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -167,10 +171,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -189,10 +193,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -227,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -262,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -356,21 +360,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -387,7 +391,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -439,15 +443,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -455,13 +459,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -537,6 +541,12 @@
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -554,16 +564,22 @@
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -571,8 +587,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,13 +613,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -611,10 +627,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -650,6 +666,12 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -664,15 +686,21 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
@@ -680,12 +708,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -721,6 +749,12 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -735,15 +769,21 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
@@ -751,10 +791,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,6 +830,12 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -804,15 +850,21 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -820,12 +872,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -861,6 +913,12 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -875,15 +933,21 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -891,7 +955,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -928,13 +992,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -942,8 +1006,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -986,13 +1050,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1000,8 +1064,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,13 +1099,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1049,8 +1113,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1084,6 +1148,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView activeTab="9" windowHeight="6870" windowWidth="14115" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Input" r:id="rId1" sheetId="1"/>
-    <sheet name="No Name" r:id="rId2" sheetId="2"/>
-    <sheet name="No Email" r:id="rId3" sheetId="3"/>
-    <sheet name="No Pass" r:id="rId4" sheetId="4"/>
-    <sheet name="No Confirm" r:id="rId5" sheetId="5"/>
-    <sheet name="No Input" r:id="rId6" sheetId="6"/>
-    <sheet name="Full Login" r:id="rId7" sheetId="7"/>
-    <sheet name="No Email Login" r:id="rId8" sheetId="8"/>
-    <sheet name="No Pass Login" r:id="rId9" sheetId="9"/>
-    <sheet name="No Input Login" r:id="rId10" sheetId="10"/>
+    <sheet name="Create Full Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Create No Name" sheetId="2" r:id="rId2"/>
+    <sheet name="Create No Email" sheetId="3" r:id="rId3"/>
+    <sheet name="Create No Pass" sheetId="4" r:id="rId4"/>
+    <sheet name="Create No Confirm" sheetId="5" r:id="rId5"/>
+    <sheet name="Create No Input" sheetId="6" r:id="rId6"/>
+    <sheet name="Login Full" sheetId="7" r:id="rId7"/>
+    <sheet name="Login No Email" sheetId="8" r:id="rId8"/>
+    <sheet name="Login No Pass" sheetId="9" r:id="rId9"/>
+    <sheet name="Login No Input" sheetId="10" r:id="rId10"/>
+    <sheet name="Create Pass Match" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="24">
   <si>
     <t>Result</t>
   </si>
@@ -97,13 +98,15 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>Passwords don’t match</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,14 +141,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -171,10 +174,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -193,10 +196,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -231,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -266,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -360,21 +363,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -391,7 +394,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -443,29 +446,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -525,70 +528,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,13 +570,106 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -627,10 +677,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -694,13 +744,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
@@ -708,12 +758,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -777,13 +826,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
@@ -791,10 +840,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -858,26 +906,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,7 +958,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -931,7 +978,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -941,13 +988,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -955,7 +1002,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,13 +1039,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1006,8 +1053,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1050,13 +1097,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1064,8 +1111,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,13 +1146,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1113,8 +1160,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1148,6 +1195,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870"/>
+    <workbookView activeTab="6" firstSheet="3" windowHeight="6870" windowWidth="14115" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Full Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Create No Name" sheetId="2" r:id="rId2"/>
-    <sheet name="Create No Email" sheetId="3" r:id="rId3"/>
-    <sheet name="Create No Pass" sheetId="4" r:id="rId4"/>
-    <sheet name="Create No Confirm" sheetId="5" r:id="rId5"/>
-    <sheet name="Create No Input" sheetId="6" r:id="rId6"/>
-    <sheet name="Login Full" sheetId="7" r:id="rId7"/>
-    <sheet name="Login No Email" sheetId="8" r:id="rId8"/>
-    <sheet name="Login No Pass" sheetId="9" r:id="rId9"/>
-    <sheet name="Login No Input" sheetId="10" r:id="rId10"/>
-    <sheet name="Create Pass Match" sheetId="11" r:id="rId11"/>
+    <sheet name="Create Full Input" r:id="rId1" sheetId="1"/>
+    <sheet name="Create No Name" r:id="rId2" sheetId="2"/>
+    <sheet name="Create No Email" r:id="rId3" sheetId="3"/>
+    <sheet name="Create No Pass" r:id="rId4" sheetId="4"/>
+    <sheet name="Create No Confirm" r:id="rId5" sheetId="5"/>
+    <sheet name="Create No Input" r:id="rId6" sheetId="6"/>
+    <sheet name="Login Full" r:id="rId7" sheetId="7"/>
+    <sheet name="Login No Email" r:id="rId8" sheetId="8"/>
+    <sheet name="Login No Pass" r:id="rId9" sheetId="9"/>
+    <sheet name="Login No Input" r:id="rId10" sheetId="10"/>
+    <sheet name="Create Pass Match" r:id="rId11" sheetId="11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="21">
   <si>
     <t>Result</t>
   </si>
@@ -49,9 +49,6 @@
     <t>User4</t>
   </si>
   <si>
-    <t>User has been successfully added.</t>
-  </si>
-  <si>
     <t>fullName</t>
   </si>
   <si>
@@ -94,19 +91,14 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>Login successful</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Passwords don’t match</t>
+    <t>Monday Night Football Squad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,14 +133,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -174,10 +166,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -196,10 +188,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -234,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -269,7 +261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -363,21 +355,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -394,7 +386,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -446,43 +438,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -499,16 +491,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -516,27 +508,27 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -544,8 +536,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -561,22 +553,22 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -584,27 +576,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -618,25 +610,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,32 +636,32 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -677,21 +669,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -705,52 +697,134 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
@@ -758,22 +832,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -790,19 +862,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -813,47 +885,49 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -870,19 +944,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,111 +964,29 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -1002,7 +994,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,51 +1010,51 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1076,34 +1068,34 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1111,13 +1103,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1131,28 +1123,28 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1160,13 +1152,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1180,21 +1172,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="3" windowHeight="6870" windowWidth="14115" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Full Input" r:id="rId1" sheetId="1"/>
-    <sheet name="Create No Name" r:id="rId2" sheetId="2"/>
-    <sheet name="Create No Email" r:id="rId3" sheetId="3"/>
-    <sheet name="Create No Pass" r:id="rId4" sheetId="4"/>
-    <sheet name="Create No Confirm" r:id="rId5" sheetId="5"/>
-    <sheet name="Create No Input" r:id="rId6" sheetId="6"/>
-    <sheet name="Login Full" r:id="rId7" sheetId="7"/>
-    <sheet name="Login No Email" r:id="rId8" sheetId="8"/>
-    <sheet name="Login No Pass" r:id="rId9" sheetId="9"/>
-    <sheet name="Login No Input" r:id="rId10" sheetId="10"/>
-    <sheet name="Create Pass Match" r:id="rId11" sheetId="11"/>
+    <sheet name="Create Full Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Create No Name" sheetId="2" r:id="rId2"/>
+    <sheet name="Create No Email" sheetId="3" r:id="rId3"/>
+    <sheet name="Create No Pass" sheetId="4" r:id="rId4"/>
+    <sheet name="Create No Confirm" sheetId="5" r:id="rId5"/>
+    <sheet name="Create No Input" sheetId="6" r:id="rId6"/>
+    <sheet name="Login Full" sheetId="7" r:id="rId7"/>
+    <sheet name="Login No Email" sheetId="8" r:id="rId8"/>
+    <sheet name="Login No Pass" sheetId="9" r:id="rId9"/>
+    <sheet name="Login No Input" sheetId="10" r:id="rId10"/>
+    <sheet name="Create Pass Match" sheetId="11" r:id="rId11"/>
+    <sheet name="List Join" sheetId="12" r:id="rId12"/>
+    <sheet name="List Remove" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="21">
   <si>
     <t>Result</t>
   </si>
@@ -98,7 +100,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,14 +134,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -166,10 +167,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -188,10 +189,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -226,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -261,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -355,21 +356,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -386,7 +387,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -438,29 +439,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G1" sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,14 +522,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -536,8 +537,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,13 +563,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -576,13 +577,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,13 +656,167 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -669,10 +824,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -736,13 +891,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -750,11 +905,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -818,13 +973,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
@@ -832,9 +987,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,13 +1053,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -912,11 +1067,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,13 +1135,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -994,7 +1149,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,22 +1186,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1089,13 +1244,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1103,8 +1258,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,13 +1293,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1152,8 +1307,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1187,6 +1342,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" firstSheet="5" activeTab="12"/>
+    <workbookView activeTab="12" firstSheet="5" windowHeight="6870" windowWidth="14115" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Full Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Create No Name" sheetId="2" r:id="rId2"/>
-    <sheet name="Create No Email" sheetId="3" r:id="rId3"/>
-    <sheet name="Create No Pass" sheetId="4" r:id="rId4"/>
-    <sheet name="Create No Confirm" sheetId="5" r:id="rId5"/>
-    <sheet name="Create No Input" sheetId="6" r:id="rId6"/>
-    <sheet name="Login Full" sheetId="7" r:id="rId7"/>
-    <sheet name="Login No Email" sheetId="8" r:id="rId8"/>
-    <sheet name="Login No Pass" sheetId="9" r:id="rId9"/>
-    <sheet name="Login No Input" sheetId="10" r:id="rId10"/>
-    <sheet name="Create Pass Match" sheetId="11" r:id="rId11"/>
-    <sheet name="List Join" sheetId="12" r:id="rId12"/>
-    <sheet name="List Remove" sheetId="13" r:id="rId13"/>
+    <sheet name="Create Full Input" r:id="rId1" sheetId="1"/>
+    <sheet name="Create No Name" r:id="rId2" sheetId="2"/>
+    <sheet name="Create No Email" r:id="rId3" sheetId="3"/>
+    <sheet name="Create No Pass" r:id="rId4" sheetId="4"/>
+    <sheet name="Create No Confirm" r:id="rId5" sheetId="5"/>
+    <sheet name="Create No Input" r:id="rId6" sheetId="6"/>
+    <sheet name="Login Full" r:id="rId7" sheetId="7"/>
+    <sheet name="Login No Email" r:id="rId8" sheetId="8"/>
+    <sheet name="Login No Pass" r:id="rId9" sheetId="9"/>
+    <sheet name="Login No Input" r:id="rId10" sheetId="10"/>
+    <sheet name="Create Pass Match" r:id="rId11" sheetId="11"/>
+    <sheet name="List Join" r:id="rId12" sheetId="12"/>
+    <sheet name="List Remove" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="21">
   <si>
     <t>Result</t>
   </si>
@@ -100,6 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,14 +135,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -167,10 +168,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -189,10 +190,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -227,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -262,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -356,21 +357,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -387,7 +388,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -439,15 +440,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="A1:G3"/>
@@ -455,13 +456,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -522,14 +523,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -537,8 +538,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,13 +564,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -577,13 +578,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -656,13 +657,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -670,12 +671,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -736,26 +737,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -794,6 +795,9 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -808,15 +812,18 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -824,10 +831,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,13 +898,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -905,11 +912,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -973,13 +980,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
@@ -987,9 +994,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1053,13 +1060,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -1067,11 +1074,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,13 +1142,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -1149,7 +1156,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1186,13 +1193,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -1200,8 +1207,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1244,13 +1251,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1258,8 +1265,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1293,13 +1300,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1307,8 +1314,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1342,6 +1349,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="5" windowHeight="6870" windowWidth="14115" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Full Input" r:id="rId1" sheetId="1"/>
-    <sheet name="Create No Name" r:id="rId2" sheetId="2"/>
-    <sheet name="Create No Email" r:id="rId3" sheetId="3"/>
-    <sheet name="Create No Pass" r:id="rId4" sheetId="4"/>
-    <sheet name="Create No Confirm" r:id="rId5" sheetId="5"/>
-    <sheet name="Create No Input" r:id="rId6" sheetId="6"/>
-    <sheet name="Login Full" r:id="rId7" sheetId="7"/>
-    <sheet name="Login No Email" r:id="rId8" sheetId="8"/>
-    <sheet name="Login No Pass" r:id="rId9" sheetId="9"/>
-    <sheet name="Login No Input" r:id="rId10" sheetId="10"/>
-    <sheet name="Create Pass Match" r:id="rId11" sheetId="11"/>
-    <sheet name="List Join" r:id="rId12" sheetId="12"/>
-    <sheet name="List Remove" r:id="rId13" sheetId="13"/>
+    <sheet name="Create Full Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Create No Name" sheetId="2" r:id="rId2"/>
+    <sheet name="Create No Email" sheetId="3" r:id="rId3"/>
+    <sheet name="Create No Pass" sheetId="4" r:id="rId4"/>
+    <sheet name="Create No Confirm" sheetId="5" r:id="rId5"/>
+    <sheet name="Create No Input" sheetId="6" r:id="rId6"/>
+    <sheet name="Login Full" sheetId="7" r:id="rId7"/>
+    <sheet name="Login No Email" sheetId="8" r:id="rId8"/>
+    <sheet name="Login No Pass" sheetId="9" r:id="rId9"/>
+    <sheet name="Login No Input" sheetId="10" r:id="rId10"/>
+    <sheet name="Create Pass Match" sheetId="11" r:id="rId11"/>
+    <sheet name="List Join" sheetId="12" r:id="rId12"/>
+    <sheet name="List Remove" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="21">
   <si>
     <t>Result</t>
   </si>
@@ -93,14 +93,13 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>Monday Night Football Squad</t>
+    <t>Here is a list of everyone that has been added already</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,14 +134,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -168,10 +167,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -190,10 +189,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -228,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -263,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -357,21 +356,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -388,7 +387,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -440,29 +439,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -523,14 +522,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -538,8 +537,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,13 +563,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -578,13 +577,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,13 +656,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -671,12 +670,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -737,26 +736,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -817,13 +816,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -831,10 +830,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,13 +897,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -912,11 +911,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,13 +979,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
@@ -994,9 +993,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,13 +1059,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -1074,11 +1073,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,13 +1141,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -1156,7 +1155,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,22 +1192,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1251,13 +1250,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1265,8 +1264,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,13 +1299,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1314,8 +1313,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1349,6 +1348,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" firstSheet="5" activeTab="6"/>
+    <workbookView activeTab="11" firstSheet="5" windowHeight="6870" windowWidth="14115" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Full Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Create No Name" sheetId="2" r:id="rId2"/>
-    <sheet name="Create No Email" sheetId="3" r:id="rId3"/>
-    <sheet name="Create No Pass" sheetId="4" r:id="rId4"/>
-    <sheet name="Create No Confirm" sheetId="5" r:id="rId5"/>
-    <sheet name="Create No Input" sheetId="6" r:id="rId6"/>
-    <sheet name="Login Full" sheetId="7" r:id="rId7"/>
-    <sheet name="Login No Email" sheetId="8" r:id="rId8"/>
-    <sheet name="Login No Pass" sheetId="9" r:id="rId9"/>
-    <sheet name="Login No Input" sheetId="10" r:id="rId10"/>
-    <sheet name="Create Pass Match" sheetId="11" r:id="rId11"/>
-    <sheet name="List Join" sheetId="12" r:id="rId12"/>
-    <sheet name="List Remove" sheetId="13" r:id="rId13"/>
+    <sheet name="Create Full Input" r:id="rId1" sheetId="1"/>
+    <sheet name="Create No Name" r:id="rId2" sheetId="2"/>
+    <sheet name="Create No Email" r:id="rId3" sheetId="3"/>
+    <sheet name="Create No Pass" r:id="rId4" sheetId="4"/>
+    <sheet name="Create No Confirm" r:id="rId5" sheetId="5"/>
+    <sheet name="Create No Input" r:id="rId6" sheetId="6"/>
+    <sheet name="Login Full" r:id="rId7" sheetId="7"/>
+    <sheet name="Login No Email" r:id="rId8" sheetId="8"/>
+    <sheet name="Login No Pass" r:id="rId9" sheetId="9"/>
+    <sheet name="Login No Input" r:id="rId10" sheetId="10"/>
+    <sheet name="Create Pass Match" r:id="rId11" sheetId="11"/>
+    <sheet name="List Join" r:id="rId12" sheetId="12"/>
+    <sheet name="List Remove" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="24">
   <si>
     <t>Result</t>
   </si>
@@ -87,19 +87,29 @@
     <t>Passwords don't match</t>
   </si>
   <si>
-    <t>Please fill out all fields</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
     <t>Here is a list of everyone that has been added already</t>
+  </si>
+  <si>
+    <t>Please fill in all fields</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Can you do it on a cold, rainy night in Stoke?</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,14 +144,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -167,10 +177,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -189,10 +199,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -227,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -262,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -356,21 +366,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -387,7 +397,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -439,15 +449,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -455,13 +465,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -501,7 +511,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -518,27 +534,33 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,22 +576,34 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -577,13 +611,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -629,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -652,30 +686,30 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -717,6 +751,12 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -734,28 +774,34 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,6 +843,12 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -814,15 +866,21 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -830,10 +888,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -867,13 +925,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,35 +945,35 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,13 +1007,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,33 +1027,33 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,13 +1087,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,23 +1107,23 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -1073,11 +1131,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,7 +1175,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,25 +1195,25 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1171,43 +1229,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="49.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="40.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1235,7 +1293,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,26 +1310,32 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1287,6 +1357,12 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1295,26 +1371,32 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1336,6 +1418,12 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1344,10 +1432,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="5" windowHeight="6870" windowWidth="14115" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Full Input" r:id="rId1" sheetId="1"/>
-    <sheet name="Create No Name" r:id="rId2" sheetId="2"/>
-    <sheet name="Create No Email" r:id="rId3" sheetId="3"/>
-    <sheet name="Create No Pass" r:id="rId4" sheetId="4"/>
-    <sheet name="Create No Confirm" r:id="rId5" sheetId="5"/>
-    <sheet name="Create No Input" r:id="rId6" sheetId="6"/>
-    <sheet name="Login Full" r:id="rId7" sheetId="7"/>
-    <sheet name="Login No Email" r:id="rId8" sheetId="8"/>
-    <sheet name="Login No Pass" r:id="rId9" sheetId="9"/>
-    <sheet name="Login No Input" r:id="rId10" sheetId="10"/>
-    <sheet name="Create Pass Match" r:id="rId11" sheetId="11"/>
-    <sheet name="List Join" r:id="rId12" sheetId="12"/>
-    <sheet name="List Remove" r:id="rId13" sheetId="13"/>
+    <sheet name="Create Full Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Create No Name" sheetId="2" r:id="rId2"/>
+    <sheet name="Create No Email" sheetId="3" r:id="rId3"/>
+    <sheet name="Create No Pass" sheetId="4" r:id="rId4"/>
+    <sheet name="Create No Confirm" sheetId="5" r:id="rId5"/>
+    <sheet name="Create No Input" sheetId="6" r:id="rId6"/>
+    <sheet name="Login Full" sheetId="7" r:id="rId7"/>
+    <sheet name="Login No Email" sheetId="8" r:id="rId8"/>
+    <sheet name="Login No Pass" sheetId="9" r:id="rId9"/>
+    <sheet name="Login No Input" sheetId="10" r:id="rId10"/>
+    <sheet name="Create Pass Match" sheetId="11" r:id="rId11"/>
+    <sheet name="List Join" sheetId="12" r:id="rId12"/>
+    <sheet name="List Remove" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="28">
   <si>
     <t>Result</t>
   </si>
@@ -75,15 +75,9 @@
     <t>qwert</t>
   </si>
   <si>
-    <t>email3</t>
-  </si>
-  <si>
     <t>User3</t>
   </si>
   <si>
-    <t>email4</t>
-  </si>
-  <si>
     <t>Passwords don't match</t>
   </si>
   <si>
@@ -103,14 +97,31 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>You must use a QA email to login</t>
+  </si>
+  <si>
+    <t>You must use a QA email to create an account</t>
+  </si>
+  <si>
+    <t>email1@qa.com</t>
+  </si>
+  <si>
+    <t>email2@qa.com</t>
+  </si>
+  <si>
+    <t>email3@qa.com</t>
+  </si>
+  <si>
+    <t>email4@qa.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +132,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF032F62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,15 +162,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -177,10 +199,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -199,10 +221,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -237,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -272,7 +294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -366,21 +388,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -397,7 +419,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -449,29 +471,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -511,13 +532,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -534,33 +555,33 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -576,310 +597,33 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -888,10 +632,291 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -925,13 +950,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,23 +970,23 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -969,11 +994,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1007,13 +1032,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1027,23 +1052,23 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1051,9 +1076,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,13 +1112,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,35 +1132,36 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1169,13 +1195,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1189,31 +1215,31 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,43 +1255,44 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="49.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1286,56 +1313,59 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
+      <c r="A2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
+      <c r="A3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="3" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1357,13 +1387,13 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1371,32 +1401,32 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,13 +1448,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,16 +1462,36 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="Create Full Input" sheetId="1" r:id="rId1"/>
@@ -481,14 +481,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="6" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -522,8 +522,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -545,8 +545,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -565,8 +565,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -815,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Create Full Input" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -728,13 +728,13 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -768,8 +768,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -791,8 +791,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -811,6 +811,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -820,13 +824,13 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
@@ -860,8 +864,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -883,8 +887,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -903,6 +907,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1288,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1332,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -1341,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>

--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" firstSheet="5" activeTab="6"/>
+    <workbookView activeTab="12" firstSheet="5" windowHeight="6870" windowWidth="14115" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Full Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Create No Name" sheetId="2" r:id="rId2"/>
-    <sheet name="Create No Email" sheetId="3" r:id="rId3"/>
-    <sheet name="Create No Pass" sheetId="4" r:id="rId4"/>
-    <sheet name="Create No Confirm" sheetId="5" r:id="rId5"/>
-    <sheet name="Create No Input" sheetId="6" r:id="rId6"/>
-    <sheet name="Login Full" sheetId="7" r:id="rId7"/>
-    <sheet name="Login No Email" sheetId="8" r:id="rId8"/>
-    <sheet name="Login No Pass" sheetId="9" r:id="rId9"/>
-    <sheet name="Login No Input" sheetId="10" r:id="rId10"/>
-    <sheet name="Create Pass Match" sheetId="11" r:id="rId11"/>
-    <sheet name="List Join" sheetId="12" r:id="rId12"/>
-    <sheet name="List Remove" sheetId="13" r:id="rId13"/>
+    <sheet name="Create Full Input" r:id="rId1" sheetId="1"/>
+    <sheet name="Create No Name" r:id="rId2" sheetId="2"/>
+    <sheet name="Create No Email" r:id="rId3" sheetId="3"/>
+    <sheet name="Create No Pass" r:id="rId4" sheetId="4"/>
+    <sheet name="Create No Confirm" r:id="rId5" sheetId="5"/>
+    <sheet name="Create No Input" r:id="rId6" sheetId="6"/>
+    <sheet name="Login Full" r:id="rId7" sheetId="7"/>
+    <sheet name="Login No Email" r:id="rId8" sheetId="8"/>
+    <sheet name="Login No Pass" r:id="rId9" sheetId="9"/>
+    <sheet name="Login No Input" r:id="rId10" sheetId="10"/>
+    <sheet name="Create Pass Match" r:id="rId11" sheetId="11"/>
+    <sheet name="List Join" r:id="rId12" sheetId="12"/>
+    <sheet name="List Remove" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="30">
   <si>
     <t>Result</t>
   </si>
@@ -115,12 +115,19 @@
   </si>
   <si>
     <t>email4@qa.com</t>
+  </si>
+  <si>
+    <t>List has been updated</t>
+  </si>
+  <si>
+    <t>Monday Night Football Squad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,17 +170,17 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -199,10 +206,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -221,10 +228,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -259,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -294,7 +301,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,21 +395,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -419,7 +426,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -471,14 +478,615 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="49.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -487,530 +1095,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1018,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -1038,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1058,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1074,93 +1161,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -1168,12 +1175,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1237,13 +1244,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1251,7 +1258,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,23 +1295,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="49.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="40.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1332,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -1349,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -1360,16 +1367,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -1377,7 +1384,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1423,13 +1430,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1437,8 +1444,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="false"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,9 +1508,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="A4"/>
+    <hyperlink r:id="rId2" ref="A5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView activeTab="12" firstSheet="5" windowHeight="6870" windowWidth="14115" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Full Input" r:id="rId1" sheetId="1"/>
-    <sheet name="Create No Name" r:id="rId2" sheetId="2"/>
-    <sheet name="Create No Email" r:id="rId3" sheetId="3"/>
-    <sheet name="Create No Pass" r:id="rId4" sheetId="4"/>
-    <sheet name="Create No Confirm" r:id="rId5" sheetId="5"/>
-    <sheet name="Create No Input" r:id="rId6" sheetId="6"/>
-    <sheet name="Login Full" r:id="rId7" sheetId="7"/>
-    <sheet name="Login No Email" r:id="rId8" sheetId="8"/>
-    <sheet name="Login No Pass" r:id="rId9" sheetId="9"/>
-    <sheet name="Login No Input" r:id="rId10" sheetId="10"/>
-    <sheet name="Create Pass Match" r:id="rId11" sheetId="11"/>
-    <sheet name="List Join" r:id="rId12" sheetId="12"/>
-    <sheet name="List Remove" r:id="rId13" sheetId="13"/>
+    <sheet name="Create Full Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Create No Name" sheetId="2" r:id="rId2"/>
+    <sheet name="Create No Email" sheetId="3" r:id="rId3"/>
+    <sheet name="Create No Pass" sheetId="4" r:id="rId4"/>
+    <sheet name="Create No Confirm" sheetId="5" r:id="rId5"/>
+    <sheet name="Create No Input" sheetId="6" r:id="rId6"/>
+    <sheet name="Login Full" sheetId="7" r:id="rId7"/>
+    <sheet name="Login No Email" sheetId="8" r:id="rId8"/>
+    <sheet name="Login No Pass" sheetId="9" r:id="rId9"/>
+    <sheet name="Login No Input" sheetId="10" r:id="rId10"/>
+    <sheet name="Create Pass Match" sheetId="11" r:id="rId11"/>
+    <sheet name="List Join" sheetId="12" r:id="rId12"/>
+    <sheet name="List Remove" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="26">
   <si>
     <t>Result</t>
   </si>
@@ -84,18 +84,9 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>Here is a list of everyone that has been added already</t>
-  </si>
-  <si>
     <t>Please fill in all fields</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Can you do it on a cold, rainy night in Stoke?</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -118,16 +109,12 @@
   </si>
   <si>
     <t>List has been updated</t>
-  </si>
-  <si>
-    <t>Monday Night Football Squad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,17 +157,17 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -206,10 +193,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -228,10 +215,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -266,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -301,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -395,21 +382,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -426,7 +413,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -478,28 +465,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="49.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -530,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -539,10 +527,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -553,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -562,10 +550,10 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -573,17 +561,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -591,8 +579,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,10 +596,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -619,311 +607,22 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -932,10 +631,299 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,10 +957,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -989,23 +977,23 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -1013,11 +1001,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,10 +1039,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1071,23 +1059,23 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1095,9 +1083,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,10 +1119,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1151,23 +1139,23 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -1175,12 +1163,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="41.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1234,23 +1221,23 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1258,7 +1245,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,10 +1261,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1285,33 +1272,33 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="49.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1333,16 +1320,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1350,16 +1337,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1367,16 +1354,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -1384,7 +1371,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="3" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,10 +1393,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1420,23 +1407,23 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1444,8 +1431,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="false"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,10 +1454,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1481,10 +1468,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1492,25 +1479,37 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A4"/>
-    <hyperlink r:id="rId2" ref="A5"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/FootballManagerTesting.xlsx
+++ b/src/main/resources/FootballManagerTesting.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="6870" firstSheet="5" activeTab="12"/>
+    <workbookView activeTab="12" firstSheet="5" windowHeight="6870" windowWidth="14115" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Full Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Create No Name" sheetId="2" r:id="rId2"/>
-    <sheet name="Create No Email" sheetId="3" r:id="rId3"/>
-    <sheet name="Create No Pass" sheetId="4" r:id="rId4"/>
-    <sheet name="Create No Confirm" sheetId="5" r:id="rId5"/>
-    <sheet name="Create No Input" sheetId="6" r:id="rId6"/>
-    <sheet name="Login Full" sheetId="7" r:id="rId7"/>
-    <sheet name="Login No Email" sheetId="8" r:id="rId8"/>
-    <sheet name="Login No Pass" sheetId="9" r:id="rId9"/>
-    <sheet name="Login No Input" sheetId="10" r:id="rId10"/>
-    <sheet name="Create Pass Match" sheetId="11" r:id="rId11"/>
-    <sheet name="List Join" sheetId="12" r:id="rId12"/>
-    <sheet name="List Remove" sheetId="13" r:id="rId13"/>
+    <sheet name="Create Full Input" r:id="rId1" sheetId="1"/>
+    <sheet name="Create No Name" r:id="rId2" sheetId="2"/>
+    <sheet name="Create No Email" r:id="rId3" sheetId="3"/>
+    <sheet name="Create No Pass" r:id="rId4" sheetId="4"/>
+    <sheet name="Create No Confirm" r:id="rId5" sheetId="5"/>
+    <sheet name="Create No Input" r:id="rId6" sheetId="6"/>
+    <sheet name="Login Full" r:id="rId7" sheetId="7"/>
+    <sheet name="Login No Email" r:id="rId8" sheetId="8"/>
+    <sheet name="Login No Pass" r:id="rId9" sheetId="9"/>
+    <sheet name="Login No Input" r:id="rId10" sheetId="10"/>
+    <sheet name="Create Pass Match" r:id="rId11" sheetId="11"/>
+    <sheet name="List Join" r:id="rId12" sheetId="12"/>
+    <sheet name="List Remove" r:id="rId13" sheetId="13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="26">
   <si>
     <t>Result</t>
   </si>
@@ -115,6 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,17 +158,17 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -193,10 +194,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -215,10 +216,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -253,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -288,7 +289,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -382,21 +383,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -413,7 +414,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -465,15 +466,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -481,13 +482,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,17 +562,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -579,8 +580,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,12 +618,301 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -631,299 +921,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,13 +988,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -1001,11 +1002,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,13 +1070,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1083,9 +1084,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1149,13 +1150,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -1163,11 +1164,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="41.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,13 +1232,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1245,7 +1246,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1282,13 +1283,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1296,9 +1297,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1354,16 +1355,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -1371,7 +1372,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1417,13 +1418,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1431,8 +1432,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,9 +1508,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="A4"/>
+    <hyperlink r:id="rId2" ref="A5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>